--- a/Data/Pdx.xlsx
+++ b/Data/Pdx.xlsx
@@ -17,12 +17,11 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9645" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9644" uniqueCount="1049">
   <si>
     <t>Per</t>
   </si>
@@ -3906,10 +3905,10 @@
   <dimension ref="A1:AI664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D436" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="K460" sqref="K460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4626,9 +4625,7 @@
       <c r="K8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="M8" s="13"/>
       <c r="N8" s="2" t="s">
         <v>65</v>
       </c>

--- a/Data/Pdx.xlsx
+++ b/Data/Pdx.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$I$664</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -497,7 +497,7 @@
   <dimension ref="A1:Q664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33415,7 +33415,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:I1"/>
+  <autoFilter ref="H1:I664"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Pdx.xlsx
+++ b/Data/Pdx.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$I$664</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$K$664</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q664"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="K303" sqref="K303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,6 +586,9 @@
       <c r="J2">
         <v>143</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <v>24</v>
       </c>
@@ -636,6 +639,9 @@
       <c r="J3">
         <v>143</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>24</v>
       </c>
@@ -686,6 +692,9 @@
       <c r="J4">
         <v>143</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <v>24</v>
       </c>
@@ -736,6 +745,9 @@
       <c r="J5">
         <v>20</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>206</v>
       </c>
@@ -786,6 +798,9 @@
       <c r="J6">
         <v>20</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <v>206</v>
       </c>
@@ -836,6 +851,9 @@
       <c r="J7">
         <v>20</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <v>206</v>
       </c>
@@ -886,6 +904,9 @@
       <c r="J8">
         <v>241</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <v>170</v>
       </c>
@@ -936,6 +957,9 @@
       <c r="J9">
         <v>241</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>170</v>
       </c>
@@ -986,6 +1010,9 @@
       <c r="J10">
         <v>241</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <v>170</v>
       </c>
@@ -1036,6 +1063,9 @@
       <c r="J11">
         <v>197</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <v>181</v>
       </c>
@@ -1086,6 +1116,12 @@
       <c r="J12">
         <v>194</v>
       </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12">
         <v>9.9</v>
       </c>
@@ -1133,6 +1169,9 @@
       <c r="J13">
         <v>30</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
       <c r="L13">
         <v>240</v>
       </c>
@@ -1183,6 +1222,9 @@
       <c r="J14">
         <v>197</v>
       </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
       <c r="L14">
         <v>181</v>
       </c>
@@ -1233,6 +1275,12 @@
       <c r="J15">
         <v>194</v>
       </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
       <c r="M15">
         <v>10</v>
       </c>
@@ -1280,6 +1328,9 @@
       <c r="J16">
         <v>229</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <v>203</v>
       </c>
@@ -1595,6 +1646,9 @@
       <c r="J22">
         <v>106</v>
       </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <v>203</v>
       </c>
@@ -1645,6 +1699,9 @@
       <c r="J23">
         <v>106</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
       <c r="L23">
         <v>203</v>
       </c>
@@ -1801,6 +1858,9 @@
       <c r="J26">
         <v>216</v>
       </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
       <c r="L26">
         <v>112</v>
       </c>
@@ -1851,6 +1911,9 @@
       <c r="J27">
         <v>216</v>
       </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
       <c r="L27">
         <v>112</v>
       </c>
@@ -1901,6 +1964,9 @@
       <c r="J28">
         <v>186</v>
       </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <v>183</v>
       </c>
@@ -1950,6 +2016,9 @@
       </c>
       <c r="J29">
         <v>186</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
       </c>
       <c r="L29">
         <v>183</v>
@@ -2425,6 +2494,9 @@
       <c r="J38">
         <v>60</v>
       </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
       <c r="L38">
         <v>50</v>
       </c>
@@ -2475,6 +2547,9 @@
       <c r="J39">
         <v>60</v>
       </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
       <c r="L39">
         <v>50</v>
       </c>
@@ -2525,6 +2600,9 @@
       <c r="J40">
         <v>36</v>
       </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
       <c r="L40">
         <v>66</v>
       </c>
@@ -2575,6 +2653,9 @@
       <c r="J41">
         <v>36</v>
       </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
       <c r="L41">
         <v>67</v>
       </c>
@@ -2625,6 +2706,9 @@
       <c r="J42">
         <v>99</v>
       </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
       <c r="L42">
         <v>97</v>
       </c>
@@ -2675,6 +2759,9 @@
       <c r="J43">
         <v>99</v>
       </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
       <c r="L43">
         <v>97</v>
       </c>
@@ -2725,6 +2812,9 @@
       <c r="J44">
         <v>24</v>
       </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="L44">
         <v>181</v>
       </c>
@@ -2775,6 +2865,9 @@
       <c r="J45">
         <v>24</v>
       </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
       <c r="L45">
         <v>221</v>
       </c>
@@ -2825,6 +2918,9 @@
       <c r="J46">
         <v>24</v>
       </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
       <c r="L46">
         <v>53</v>
       </c>
@@ -4094,6 +4190,9 @@
       <c r="J70">
         <v>24</v>
       </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
       <c r="L70">
         <v>72</v>
       </c>
@@ -4144,6 +4243,9 @@
       <c r="J71">
         <v>24</v>
       </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
       <c r="L71">
         <v>72</v>
       </c>
@@ -4194,6 +4296,9 @@
       <c r="J72">
         <v>24</v>
       </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
       <c r="L72">
         <v>72</v>
       </c>
@@ -5304,6 +5409,12 @@
       <c r="J93">
         <v>109</v>
       </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
       <c r="M93">
         <v>0.1</v>
       </c>
@@ -5351,6 +5462,12 @@
       <c r="J94">
         <v>109</v>
       </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
       <c r="M94">
         <v>0.1</v>
       </c>
@@ -5398,6 +5515,12 @@
       <c r="J95">
         <v>109</v>
       </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
       <c r="M95">
         <v>40.5</v>
       </c>
@@ -5816,6 +5939,9 @@
       <c r="J103">
         <v>24</v>
       </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
       <c r="L103">
         <v>80</v>
       </c>
@@ -5866,6 +5992,9 @@
       <c r="J104">
         <v>24</v>
       </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
       <c r="L104">
         <v>80</v>
       </c>
@@ -6181,6 +6310,12 @@
       <c r="J110">
         <v>109</v>
       </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
       <c r="M110">
         <v>1</v>
       </c>
@@ -6228,6 +6363,12 @@
       <c r="J111">
         <v>109</v>
       </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
       <c r="M111">
         <v>9.5</v>
       </c>
@@ -7017,6 +7158,9 @@
       <c r="J126">
         <v>216</v>
       </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
       <c r="L126">
         <v>254</v>
       </c>
@@ -7067,6 +7211,9 @@
       <c r="J127">
         <v>58</v>
       </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
       <c r="L127">
         <v>254</v>
       </c>
@@ -7223,6 +7370,9 @@
       <c r="J130">
         <v>231</v>
       </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
       <c r="L130">
         <v>171</v>
       </c>
@@ -7273,6 +7423,9 @@
       <c r="J131">
         <v>101</v>
       </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
       <c r="L131">
         <v>132</v>
       </c>
@@ -7376,6 +7529,9 @@
       <c r="J133">
         <v>113</v>
       </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
       <c r="L133">
         <v>96</v>
       </c>
@@ -7479,6 +7635,9 @@
       <c r="J135">
         <v>257</v>
       </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
       <c r="L135">
         <v>88</v>
       </c>
@@ -7529,6 +7688,9 @@
       <c r="J136">
         <v>255</v>
       </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
       <c r="L136">
         <v>169</v>
       </c>
@@ -7579,6 +7741,9 @@
       <c r="J137">
         <v>60</v>
       </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
       <c r="L137">
         <v>79</v>
       </c>
@@ -8000,6 +8165,9 @@
       <c r="J145">
         <v>159</v>
       </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
       <c r="L145">
         <v>204</v>
       </c>
@@ -8050,6 +8218,9 @@
       <c r="J146">
         <v>159</v>
       </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
       <c r="L146">
         <v>112</v>
       </c>
@@ -8100,6 +8271,9 @@
       <c r="J147">
         <v>159</v>
       </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
       <c r="L147">
         <v>58</v>
       </c>
@@ -8150,6 +8324,9 @@
       <c r="J148">
         <v>194</v>
       </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
       <c r="L148">
         <v>122</v>
       </c>
@@ -8200,6 +8377,9 @@
       <c r="J149">
         <v>194</v>
       </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
       <c r="L149">
         <v>122</v>
       </c>
@@ -8250,6 +8430,9 @@
       <c r="J150">
         <v>99</v>
       </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
       <c r="L150">
         <v>133</v>
       </c>
@@ -8300,6 +8483,9 @@
       <c r="J151">
         <v>159</v>
       </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
       <c r="L151">
         <v>251</v>
       </c>
@@ -8350,6 +8536,12 @@
       <c r="J152">
         <v>233</v>
       </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
       <c r="M152">
         <v>4</v>
       </c>
@@ -8397,6 +8589,9 @@
       <c r="J153">
         <v>143</v>
       </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
       <c r="L153">
         <v>108</v>
       </c>
@@ -8447,6 +8642,9 @@
       <c r="J154">
         <v>143</v>
       </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
       <c r="L154">
         <v>108</v>
       </c>
@@ -8497,6 +8695,9 @@
       <c r="J155">
         <v>143</v>
       </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
       <c r="L155">
         <v>108</v>
       </c>
@@ -8547,6 +8748,9 @@
       <c r="J156">
         <v>20</v>
       </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
       <c r="L156">
         <v>60</v>
       </c>
@@ -8597,6 +8801,9 @@
       <c r="J157">
         <v>20</v>
       </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
       <c r="L157">
         <v>60</v>
       </c>
@@ -8647,6 +8854,9 @@
       <c r="J158">
         <v>20</v>
       </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
       <c r="L158">
         <v>60</v>
       </c>
@@ -8697,6 +8907,9 @@
       <c r="J159">
         <v>241</v>
       </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
       <c r="L159">
         <v>195</v>
       </c>
@@ -8747,6 +8960,9 @@
       <c r="J160">
         <v>241</v>
       </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
       <c r="L160">
         <v>195</v>
       </c>
@@ -8797,6 +9013,9 @@
       <c r="J161">
         <v>241</v>
       </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
       <c r="L161">
         <v>195</v>
       </c>
@@ -9271,6 +9490,9 @@
       <c r="J170">
         <v>99</v>
       </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
       <c r="L170">
         <v>97</v>
       </c>
@@ -9427,6 +9649,9 @@
       <c r="J173">
         <v>216</v>
       </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
       <c r="L173">
         <v>112</v>
       </c>
@@ -9530,6 +9755,9 @@
       <c r="J175">
         <v>36</v>
       </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
       <c r="L175">
         <v>66</v>
       </c>
@@ -9792,6 +10020,9 @@
       <c r="J180">
         <v>216</v>
       </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
       <c r="L180">
         <v>151</v>
       </c>
@@ -9842,6 +10073,9 @@
       <c r="J181">
         <v>216</v>
       </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
       <c r="L181">
         <v>151</v>
       </c>
@@ -9892,6 +10126,9 @@
       <c r="J182">
         <v>216</v>
       </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
       <c r="L182">
         <v>151</v>
       </c>
@@ -9942,6 +10179,9 @@
       <c r="J183">
         <v>24</v>
       </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
       <c r="L183">
         <v>81</v>
       </c>
@@ -10681,6 +10921,9 @@
       <c r="J197">
         <v>233</v>
       </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
       <c r="L197">
         <v>117</v>
       </c>
@@ -10731,6 +10974,9 @@
       <c r="J198">
         <v>233</v>
       </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
       <c r="L198">
         <v>99</v>
       </c>
@@ -10887,6 +11133,12 @@
       <c r="J201">
         <v>109</v>
       </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
       <c r="M201">
         <v>1</v>
       </c>
@@ -10934,6 +11186,12 @@
       <c r="J202">
         <v>109</v>
       </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
       <c r="M202">
         <v>5</v>
       </c>
@@ -10981,6 +11239,9 @@
       <c r="J203">
         <v>193</v>
       </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
       <c r="L203">
         <v>237</v>
       </c>
@@ -11084,6 +11345,9 @@
       <c r="J205">
         <v>225</v>
       </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
       <c r="L205">
         <v>142</v>
       </c>
@@ -11134,6 +11398,9 @@
       <c r="J206">
         <v>225</v>
       </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
       <c r="L206">
         <v>142</v>
       </c>
@@ -12509,6 +12776,9 @@
       <c r="J232">
         <v>149</v>
       </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
       <c r="L232">
         <v>186</v>
       </c>
@@ -12559,6 +12829,9 @@
       <c r="J233">
         <v>225</v>
       </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
       <c r="L233">
         <v>186</v>
       </c>
@@ -12927,6 +13200,9 @@
       <c r="J240">
         <v>216</v>
       </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
       <c r="L240">
         <v>254</v>
       </c>
@@ -12977,6 +13253,9 @@
       <c r="J241">
         <v>58</v>
       </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
       <c r="L241">
         <v>254</v>
       </c>
@@ -13133,6 +13412,9 @@
       <c r="J244">
         <v>159</v>
       </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
       <c r="L244">
         <v>255</v>
       </c>
@@ -13183,6 +13465,9 @@
       <c r="J245">
         <v>159</v>
       </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
       <c r="L245">
         <v>60</v>
       </c>
@@ -13233,6 +13518,9 @@
       <c r="J246">
         <v>159</v>
       </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
       <c r="L246">
         <v>257</v>
       </c>
@@ -13283,6 +13571,9 @@
       <c r="J247">
         <v>79</v>
       </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
       <c r="L247">
         <v>186</v>
       </c>
@@ -13333,6 +13624,12 @@
       <c r="J248">
         <v>194</v>
       </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
       <c r="M248">
         <v>152</v>
       </c>
@@ -13380,6 +13677,9 @@
       <c r="J249">
         <v>185</v>
       </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
       <c r="L249">
         <v>251</v>
       </c>
@@ -13430,6 +13730,9 @@
       <c r="J250">
         <v>159</v>
       </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
       <c r="L250">
         <v>133</v>
       </c>
@@ -13480,6 +13783,9 @@
       <c r="J251">
         <v>159</v>
       </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
       <c r="L251">
         <v>175</v>
       </c>
@@ -13530,6 +13836,12 @@
       <c r="J252">
         <v>136</v>
       </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
       <c r="M252">
         <v>5</v>
       </c>
@@ -13577,6 +13889,9 @@
       <c r="J253">
         <v>143</v>
       </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
       <c r="L253">
         <v>250</v>
       </c>
@@ -13627,6 +13942,9 @@
       <c r="J254">
         <v>143</v>
       </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
       <c r="L254">
         <v>250</v>
       </c>
@@ -13677,6 +13995,9 @@
       <c r="J255">
         <v>143</v>
       </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
       <c r="L255">
         <v>250</v>
       </c>
@@ -13727,6 +14048,9 @@
       <c r="J256">
         <v>20</v>
       </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
       <c r="L256">
         <v>210</v>
       </c>
@@ -13777,6 +14101,9 @@
       <c r="J257">
         <v>20</v>
       </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
       <c r="L257">
         <v>210</v>
       </c>
@@ -13827,6 +14154,9 @@
       <c r="J258">
         <v>20</v>
       </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
       <c r="L258">
         <v>210</v>
       </c>
@@ -13877,6 +14207,9 @@
       <c r="J259">
         <v>241</v>
       </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
       <c r="L259">
         <v>37</v>
       </c>
@@ -13927,6 +14260,9 @@
       <c r="J260">
         <v>241</v>
       </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
       <c r="L260">
         <v>37</v>
       </c>
@@ -13977,6 +14313,9 @@
       <c r="J261">
         <v>241</v>
       </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
       <c r="L261">
         <v>37</v>
       </c>
@@ -14239,6 +14578,9 @@
       <c r="J266">
         <v>197</v>
       </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
       <c r="L266">
         <v>181</v>
       </c>
@@ -14289,6 +14631,12 @@
       <c r="J267">
         <v>194</v>
       </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
       <c r="M267">
         <v>10</v>
       </c>
@@ -14336,6 +14684,9 @@
       <c r="J268">
         <v>229</v>
       </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
       <c r="L268">
         <v>177</v>
       </c>
@@ -14386,6 +14737,12 @@
       <c r="J269">
         <v>194</v>
       </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
       <c r="M269">
         <v>11.5</v>
       </c>
@@ -14433,6 +14790,9 @@
       <c r="J270">
         <v>197</v>
       </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
       <c r="L270">
         <v>30</v>
       </c>
@@ -14801,6 +15161,9 @@
       <c r="J277">
         <v>79</v>
       </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
       <c r="L277">
         <v>189</v>
       </c>
@@ -14851,6 +15214,9 @@
       <c r="J278">
         <v>79</v>
       </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
       <c r="L278">
         <v>189</v>
       </c>
@@ -14901,6 +15267,9 @@
       <c r="J279">
         <v>106</v>
       </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
       <c r="L279">
         <v>170</v>
       </c>
@@ -14951,6 +15320,9 @@
       <c r="J280">
         <v>106</v>
       </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
       <c r="L280">
         <v>170</v>
       </c>
@@ -15160,6 +15532,9 @@
       <c r="J284">
         <v>231</v>
       </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
       <c r="L284">
         <v>170</v>
       </c>
@@ -15210,6 +15585,9 @@
       <c r="J285">
         <v>101</v>
       </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
       <c r="L285">
         <v>251</v>
       </c>
@@ -15366,6 +15744,12 @@
       <c r="J288">
         <v>247</v>
       </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
       <c r="M288">
         <v>24</v>
       </c>
@@ -15413,6 +15797,12 @@
       <c r="J289">
         <v>254</v>
       </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
       <c r="M289">
         <v>46.5</v>
       </c>
@@ -15460,6 +15850,12 @@
       <c r="J290">
         <v>247</v>
       </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
       <c r="M290">
         <v>130.5</v>
       </c>
@@ -15507,6 +15903,9 @@
       <c r="J291">
         <v>30</v>
       </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
       <c r="L291">
         <v>181</v>
       </c>
@@ -15557,6 +15956,9 @@
       <c r="J292">
         <v>210</v>
       </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
       <c r="L292">
         <v>97</v>
       </c>
@@ -15607,6 +16009,12 @@
       <c r="J293">
         <v>264</v>
       </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
       <c r="M293">
         <v>1.2</v>
       </c>
@@ -15654,6 +16062,9 @@
       <c r="J294">
         <v>209</v>
       </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
       <c r="L294">
         <v>171</v>
       </c>
@@ -15704,6 +16115,9 @@
       <c r="J295">
         <v>209</v>
       </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
       <c r="L295">
         <v>189</v>
       </c>
@@ -15754,6 +16168,9 @@
       <c r="J296">
         <v>209</v>
       </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
       <c r="L296">
         <v>189</v>
       </c>
@@ -16387,6 +16804,9 @@
       <c r="J308">
         <v>166</v>
       </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
       <c r="L308">
         <v>237</v>
       </c>
@@ -16437,6 +16857,9 @@
       <c r="J309">
         <v>166</v>
       </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
       <c r="L309">
         <v>237</v>
       </c>
@@ -16593,6 +17016,12 @@
       <c r="J312">
         <v>151</v>
       </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
       <c r="M312">
         <v>4.2</v>
       </c>
@@ -16640,6 +17069,12 @@
       <c r="J313">
         <v>126</v>
       </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
       <c r="M313">
         <v>4.2</v>
       </c>
@@ -16952,6 +17387,9 @@
       <c r="J319">
         <v>180</v>
       </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
       <c r="L319">
         <v>210</v>
       </c>
@@ -17002,6 +17440,9 @@
       <c r="J320">
         <v>180</v>
       </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
       <c r="L320">
         <v>210</v>
       </c>
@@ -17264,6 +17705,9 @@
       <c r="J325">
         <v>262</v>
       </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
       <c r="L325">
         <v>196</v>
       </c>
@@ -17526,6 +17970,12 @@
       <c r="J330">
         <v>109</v>
       </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
       <c r="M330">
         <v>15.3</v>
       </c>
@@ -17573,6 +18023,12 @@
       <c r="J331">
         <v>109</v>
       </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
       <c r="M331">
         <v>82</v>
       </c>
@@ -17620,6 +18076,9 @@
       <c r="J332">
         <v>186</v>
       </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
       <c r="L332">
         <v>257</v>
       </c>
@@ -17670,6 +18129,9 @@
       <c r="J333">
         <v>186</v>
       </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
       <c r="L333">
         <v>257</v>
       </c>
@@ -17720,6 +18182,9 @@
       <c r="J334">
         <v>136</v>
       </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
       <c r="L334">
         <v>26</v>
       </c>
@@ -17770,6 +18235,9 @@
       <c r="J335">
         <v>136</v>
       </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
       <c r="L335">
         <v>26</v>
       </c>
@@ -17820,6 +18288,9 @@
       <c r="J336">
         <v>95</v>
       </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
       <c r="L336">
         <v>267</v>
       </c>
@@ -17870,6 +18341,9 @@
       <c r="J337">
         <v>194</v>
       </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
       <c r="L337">
         <v>97</v>
       </c>
@@ -17920,6 +18394,12 @@
       <c r="J338">
         <v>109</v>
       </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
       <c r="M338">
         <v>168</v>
       </c>
@@ -17967,6 +18447,12 @@
       <c r="J339">
         <v>109</v>
       </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
       <c r="M339">
         <v>154</v>
       </c>
@@ -18226,6 +18712,12 @@
       <c r="J344">
         <v>109</v>
       </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
       <c r="M344">
         <v>21.5</v>
       </c>
@@ -18273,6 +18765,12 @@
       <c r="J345">
         <v>109</v>
       </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
       <c r="M345">
         <v>108</v>
       </c>
@@ -18320,6 +18818,9 @@
       <c r="J346">
         <v>226</v>
       </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
       <c r="L346">
         <v>223</v>
       </c>
@@ -18370,6 +18871,9 @@
       <c r="J347">
         <v>226</v>
       </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
       <c r="L347">
         <v>223</v>
       </c>
@@ -18420,6 +18924,9 @@
       <c r="J348">
         <v>15</v>
       </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
       <c r="L348">
         <v>231</v>
       </c>
@@ -18470,6 +18977,9 @@
       <c r="J349">
         <v>15</v>
       </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
       <c r="L349">
         <v>231</v>
       </c>
@@ -18520,6 +19030,9 @@
       <c r="J350">
         <v>231</v>
       </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
       <c r="L350">
         <v>1</v>
       </c>
@@ -18570,6 +19083,9 @@
       <c r="J351">
         <v>122</v>
       </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
       <c r="L351">
         <v>36</v>
       </c>
@@ -18620,6 +19136,12 @@
       <c r="J352">
         <v>64</v>
       </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
       <c r="M352">
         <v>0.8</v>
       </c>
@@ -18667,6 +19189,12 @@
       <c r="J353">
         <v>27</v>
       </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
       <c r="M353">
         <v>22</v>
       </c>
@@ -18820,6 +19348,12 @@
       <c r="J356">
         <v>109</v>
       </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
       <c r="M356">
         <v>15</v>
       </c>
@@ -18867,6 +19401,12 @@
       <c r="J357">
         <v>159</v>
       </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
       <c r="M357">
         <v>30.6</v>
       </c>
@@ -18967,6 +19507,12 @@
       <c r="J359">
         <v>109</v>
       </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
       <c r="M359">
         <v>1</v>
       </c>
@@ -19067,6 +19613,9 @@
       <c r="J361">
         <v>193</v>
       </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
       <c r="L361">
         <v>237</v>
       </c>
@@ -19382,6 +19931,9 @@
       <c r="J367">
         <v>196</v>
       </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
       <c r="L367">
         <v>171</v>
       </c>
@@ -19432,6 +19984,9 @@
       <c r="J368">
         <v>231</v>
       </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
       <c r="L368">
         <v>260</v>
       </c>
@@ -19482,6 +20037,9 @@
       <c r="J369">
         <v>231</v>
       </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
       <c r="L369">
         <v>88</v>
       </c>
@@ -19585,6 +20143,9 @@
       <c r="J371">
         <v>231</v>
       </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
       <c r="L371">
         <v>88</v>
       </c>
@@ -19635,6 +20196,9 @@
       <c r="J372">
         <v>179</v>
       </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
       <c r="L372">
         <v>195</v>
       </c>
@@ -19685,6 +20249,9 @@
       <c r="J373">
         <v>179</v>
       </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
       <c r="L373">
         <v>142</v>
       </c>
@@ -19735,6 +20302,9 @@
       <c r="J374">
         <v>101</v>
       </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
       <c r="L374">
         <v>132</v>
       </c>
@@ -19785,6 +20355,9 @@
       <c r="J375">
         <v>25</v>
       </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
       <c r="L375">
         <v>111</v>
       </c>
@@ -19835,6 +20408,9 @@
       <c r="J376">
         <v>25</v>
       </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
       <c r="L376">
         <v>111</v>
       </c>
@@ -19885,6 +20461,9 @@
       <c r="J377">
         <v>25</v>
       </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
       <c r="L377">
         <v>111</v>
       </c>
@@ -19935,6 +20514,9 @@
       <c r="J378">
         <v>25</v>
       </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
       <c r="L378">
         <v>225</v>
       </c>
@@ -19985,6 +20567,9 @@
       <c r="J379">
         <v>25</v>
       </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
       <c r="L379">
         <v>90</v>
       </c>
@@ -20035,6 +20620,9 @@
       <c r="J380">
         <v>25</v>
       </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
       <c r="L380">
         <v>111</v>
       </c>
@@ -20085,6 +20673,12 @@
       <c r="J381">
         <v>109</v>
       </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
       <c r="M381">
         <v>40</v>
       </c>
@@ -20132,6 +20726,12 @@
       <c r="J382">
         <v>109</v>
       </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
       <c r="M382">
         <v>60</v>
       </c>
@@ -20179,6 +20779,12 @@
       <c r="J383">
         <v>49</v>
       </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
       <c r="M383">
         <v>352</v>
       </c>
@@ -20226,6 +20832,12 @@
       <c r="J384">
         <v>50</v>
       </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
       <c r="M384">
         <v>950</v>
       </c>
@@ -20273,6 +20885,12 @@
       <c r="J385">
         <v>4</v>
       </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
       <c r="M385">
         <v>206.5</v>
       </c>
@@ -20320,6 +20938,12 @@
       <c r="J386">
         <v>191</v>
       </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
       <c r="M386">
         <v>1.1000000000000001</v>
       </c>
@@ -20367,6 +20991,12 @@
       <c r="J387">
         <v>159</v>
       </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
       <c r="M387">
         <v>60.8</v>
       </c>
@@ -20414,6 +21044,12 @@
       <c r="J388">
         <v>159</v>
       </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
       <c r="M388">
         <v>60.8</v>
       </c>
@@ -20461,6 +21097,12 @@
       <c r="J389">
         <v>159</v>
       </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
       <c r="M389">
         <v>60.8</v>
       </c>
@@ -20508,6 +21150,12 @@
       <c r="J390">
         <v>159</v>
       </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
       <c r="M390">
         <v>60.8</v>
       </c>
@@ -20555,6 +21203,9 @@
       <c r="J391">
         <v>143</v>
       </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
       <c r="L391">
         <v>196</v>
       </c>
@@ -20605,6 +21256,9 @@
       <c r="J392">
         <v>143</v>
       </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
       <c r="L392">
         <v>196</v>
       </c>
@@ -20655,6 +21309,9 @@
       <c r="J393">
         <v>143</v>
       </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
       <c r="L393">
         <v>196</v>
       </c>
@@ -20705,6 +21362,9 @@
       <c r="J394">
         <v>20</v>
       </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
       <c r="L394">
         <v>104</v>
       </c>
@@ -20755,6 +21415,9 @@
       <c r="J395">
         <v>20</v>
       </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
       <c r="L395">
         <v>104</v>
       </c>
@@ -20805,6 +21468,9 @@
       <c r="J396">
         <v>20</v>
       </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
       <c r="L396">
         <v>104</v>
       </c>
@@ -20855,6 +21521,9 @@
       <c r="J397">
         <v>241</v>
       </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
       <c r="L397">
         <v>43</v>
       </c>
@@ -20905,6 +21574,9 @@
       <c r="J398">
         <v>241</v>
       </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
       <c r="L398">
         <v>43</v>
       </c>
@@ -20955,6 +21627,9 @@
       <c r="J399">
         <v>241</v>
       </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
       <c r="L399">
         <v>43</v>
       </c>
@@ -21005,6 +21680,12 @@
       <c r="J400">
         <v>106</v>
       </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
       <c r="M400">
         <v>2</v>
       </c>
@@ -21052,6 +21733,9 @@
       <c r="J401">
         <v>101</v>
       </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
       <c r="L401">
         <v>173</v>
       </c>
@@ -21102,6 +21786,9 @@
       <c r="J402">
         <v>101</v>
       </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
       <c r="L402">
         <v>173</v>
       </c>
@@ -21258,6 +21945,9 @@
       <c r="J405">
         <v>194</v>
       </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
       <c r="L405">
         <v>181</v>
       </c>
@@ -21308,6 +21998,9 @@
       <c r="J406">
         <v>229</v>
       </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
       <c r="L406">
         <v>236</v>
       </c>
@@ -21623,6 +22316,9 @@
       <c r="J412">
         <v>129</v>
       </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
       <c r="L412">
         <v>195</v>
       </c>
@@ -21673,6 +22369,9 @@
       <c r="J413">
         <v>129</v>
       </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
       <c r="L413">
         <v>195</v>
       </c>
@@ -21723,6 +22422,9 @@
       <c r="J414">
         <v>225</v>
       </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
       <c r="L414">
         <v>209</v>
       </c>
@@ -21773,6 +22475,9 @@
       <c r="J415">
         <v>225</v>
       </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
       <c r="L415">
         <v>209</v>
       </c>
@@ -21823,6 +22528,9 @@
       <c r="J416">
         <v>194</v>
       </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
       <c r="L416">
         <v>142</v>
       </c>
@@ -21873,6 +22581,9 @@
       <c r="J417">
         <v>7</v>
       </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
       <c r="L417">
         <v>142</v>
       </c>
@@ -21923,6 +22634,9 @@
       <c r="J418">
         <v>7</v>
       </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
       <c r="L418">
         <v>142</v>
       </c>
@@ -21973,6 +22687,9 @@
       <c r="J419">
         <v>7</v>
       </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
       <c r="L419">
         <v>142</v>
       </c>
@@ -22023,6 +22740,9 @@
       <c r="J420">
         <v>229</v>
       </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
       <c r="L420">
         <v>240</v>
       </c>
@@ -22073,6 +22793,9 @@
       <c r="J421">
         <v>84</v>
       </c>
+      <c r="K421">
+        <v>0</v>
+      </c>
       <c r="L421">
         <v>87</v>
       </c>
@@ -22123,6 +22846,9 @@
       <c r="J422">
         <v>159</v>
       </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
       <c r="L422">
         <v>251</v>
       </c>
@@ -22226,6 +22952,9 @@
       <c r="J424">
         <v>231</v>
       </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
       <c r="L424">
         <v>260</v>
       </c>
@@ -22276,6 +23005,9 @@
       <c r="J425">
         <v>231</v>
       </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
       <c r="L425">
         <v>260</v>
       </c>
@@ -22326,6 +23058,12 @@
       <c r="J426">
         <v>24</v>
       </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426">
+        <v>0</v>
+      </c>
       <c r="M426">
         <v>3.3</v>
       </c>
@@ -22373,6 +23111,12 @@
       <c r="J427">
         <v>61</v>
       </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427">
+        <v>0</v>
+      </c>
       <c r="M427">
         <v>9.3000000000000007</v>
       </c>
@@ -22791,6 +23535,12 @@
       <c r="J435">
         <v>109</v>
       </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
       <c r="M435">
         <v>4.4000000000000004</v>
       </c>
@@ -22997,6 +23747,12 @@
       <c r="J439">
         <v>109</v>
       </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
       <c r="M439">
         <v>0.6</v>
       </c>
@@ -23468,6 +24224,9 @@
       <c r="J448">
         <v>159</v>
       </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
       <c r="L448">
         <v>97</v>
       </c>
@@ -23518,6 +24277,9 @@
       <c r="J449">
         <v>186</v>
       </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
       <c r="L449">
         <v>180</v>
       </c>
@@ -23568,6 +24330,9 @@
       <c r="J450">
         <v>186</v>
       </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
       <c r="L450">
         <v>180</v>
       </c>
@@ -23618,6 +24383,9 @@
       <c r="J451">
         <v>186</v>
       </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
       <c r="L451">
         <v>180</v>
       </c>
@@ -23827,6 +24595,9 @@
       <c r="J455">
         <v>185</v>
       </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
       <c r="L455">
         <v>182</v>
       </c>
@@ -23877,6 +24648,9 @@
       <c r="J456">
         <v>185</v>
       </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
       <c r="L456">
         <v>182</v>
       </c>
@@ -24139,6 +24913,12 @@
       <c r="J461">
         <v>109</v>
       </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>0</v>
+      </c>
       <c r="M461">
         <v>27</v>
       </c>
@@ -24295,6 +25075,9 @@
       <c r="K464">
         <v>257</v>
       </c>
+      <c r="L464">
+        <v>0</v>
+      </c>
       <c r="M464">
         <v>65</v>
       </c>
@@ -24342,6 +25125,9 @@
       <c r="J465">
         <v>205</v>
       </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
       <c r="L465">
         <v>209</v>
       </c>
@@ -24392,6 +25178,9 @@
       <c r="J466">
         <v>205</v>
       </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
       <c r="L466">
         <v>209</v>
       </c>
@@ -24442,6 +25231,9 @@
       <c r="J467">
         <v>159</v>
       </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
       <c r="L467">
         <v>148</v>
       </c>
@@ -24704,6 +25496,9 @@
       <c r="J472">
         <v>131</v>
       </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
       <c r="L472">
         <v>254</v>
       </c>
@@ -24754,6 +25549,9 @@
       <c r="J473">
         <v>58</v>
       </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
       <c r="L473">
         <v>254</v>
       </c>
@@ -24910,6 +25708,9 @@
       <c r="J476">
         <v>108</v>
       </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
       <c r="L476">
         <v>24</v>
       </c>
@@ -24960,6 +25761,9 @@
       <c r="J477">
         <v>204</v>
       </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
       <c r="L477">
         <v>90</v>
       </c>
@@ -25169,6 +25973,9 @@
       <c r="J481">
         <v>217</v>
       </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
       <c r="L481">
         <v>105</v>
       </c>
@@ -25272,6 +26079,12 @@
       <c r="J483">
         <v>159</v>
       </c>
+      <c r="K483">
+        <v>0</v>
+      </c>
+      <c r="L483">
+        <v>0</v>
+      </c>
       <c r="M483">
         <v>106.6</v>
       </c>
@@ -25319,6 +26132,9 @@
       <c r="J484">
         <v>204</v>
       </c>
+      <c r="K484">
+        <v>0</v>
+      </c>
       <c r="L484">
         <v>35</v>
       </c>
@@ -25369,6 +26185,12 @@
       <c r="J485">
         <v>109</v>
       </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
+      <c r="L485">
+        <v>0</v>
+      </c>
       <c r="M485">
         <v>0.3</v>
       </c>
@@ -25416,6 +26238,12 @@
       <c r="J486">
         <v>109</v>
       </c>
+      <c r="K486">
+        <v>0</v>
+      </c>
+      <c r="L486">
+        <v>0</v>
+      </c>
       <c r="M486">
         <v>0.3</v>
       </c>
@@ -25463,6 +26291,12 @@
       <c r="J487">
         <v>109</v>
       </c>
+      <c r="K487">
+        <v>0</v>
+      </c>
+      <c r="L487">
+        <v>0</v>
+      </c>
       <c r="M487">
         <v>0.3</v>
       </c>
@@ -25510,6 +26344,12 @@
       <c r="J488">
         <v>109</v>
       </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
+      <c r="L488">
+        <v>0</v>
+      </c>
       <c r="M488">
         <v>0.3</v>
       </c>
@@ -25557,6 +26397,12 @@
       <c r="J489">
         <v>109</v>
       </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <v>0</v>
+      </c>
       <c r="M489">
         <v>0.3</v>
       </c>
@@ -25604,6 +26450,12 @@
       <c r="J490">
         <v>109</v>
       </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>0</v>
+      </c>
       <c r="M490">
         <v>0.3</v>
       </c>
@@ -25651,6 +26503,12 @@
       <c r="J491">
         <v>109</v>
       </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
+      <c r="L491">
+        <v>0</v>
+      </c>
       <c r="M491">
         <v>0.3</v>
       </c>
@@ -25698,6 +26556,12 @@
       <c r="J492">
         <v>109</v>
       </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+      <c r="L492">
+        <v>0</v>
+      </c>
       <c r="M492">
         <v>0.3</v>
       </c>
@@ -25745,6 +26609,12 @@
       <c r="J493">
         <v>109</v>
       </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
+      </c>
       <c r="M493">
         <v>0.3</v>
       </c>
@@ -25792,6 +26662,9 @@
       <c r="J494">
         <v>159</v>
       </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
       <c r="L494">
         <v>237</v>
       </c>
@@ -25842,6 +26715,9 @@
       <c r="J495">
         <v>159</v>
       </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
       <c r="L495">
         <v>237</v>
       </c>
@@ -25892,6 +26768,9 @@
       <c r="J496">
         <v>60</v>
       </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
       <c r="L496">
         <v>58</v>
       </c>
@@ -25942,6 +26821,12 @@
       <c r="J497">
         <v>201</v>
       </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+      <c r="L497">
+        <v>0</v>
+      </c>
       <c r="M497">
         <v>420</v>
       </c>
@@ -25989,6 +26874,9 @@
       <c r="J498">
         <v>159</v>
       </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
       <c r="L498">
         <v>237</v>
       </c>
@@ -26039,6 +26927,12 @@
       <c r="J499">
         <v>109</v>
       </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+      <c r="L499">
+        <v>0</v>
+      </c>
       <c r="M499">
         <v>650</v>
       </c>
@@ -26086,6 +26980,12 @@
       <c r="J500">
         <v>109</v>
       </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
       <c r="M500">
         <v>85.6</v>
       </c>
@@ -26133,6 +27033,12 @@
       <c r="J501">
         <v>88</v>
       </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+      <c r="L501">
+        <v>0</v>
+      </c>
       <c r="M501">
         <v>3.1</v>
       </c>
@@ -26180,6 +27086,12 @@
       <c r="J502">
         <v>88</v>
       </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>0</v>
+      </c>
       <c r="M502">
         <v>1.4</v>
       </c>
@@ -26227,6 +27139,12 @@
       <c r="J503">
         <v>12</v>
       </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
+      <c r="L503">
+        <v>0</v>
+      </c>
       <c r="M503">
         <v>50.5</v>
       </c>
@@ -26274,6 +27192,12 @@
       <c r="J504">
         <v>136</v>
       </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
+      <c r="L504">
+        <v>0</v>
+      </c>
       <c r="M504">
         <v>2.1</v>
       </c>
@@ -26321,6 +27245,12 @@
       <c r="J505">
         <v>191</v>
       </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+      <c r="L505">
+        <v>0</v>
+      </c>
       <c r="M505">
         <v>5.2</v>
       </c>
@@ -26368,6 +27298,12 @@
       <c r="J506">
         <v>134</v>
       </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+      <c r="L506">
+        <v>0</v>
+      </c>
       <c r="M506">
         <v>320</v>
       </c>
@@ -26415,6 +27351,12 @@
       <c r="J507">
         <v>253</v>
       </c>
+      <c r="K507">
+        <v>0</v>
+      </c>
+      <c r="L507">
+        <v>0</v>
+      </c>
       <c r="M507">
         <v>4</v>
       </c>
@@ -26462,6 +27404,9 @@
       <c r="J508">
         <v>143</v>
       </c>
+      <c r="K508">
+        <v>0</v>
+      </c>
       <c r="L508">
         <v>31</v>
       </c>
@@ -26512,6 +27457,9 @@
       <c r="J509">
         <v>143</v>
       </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
       <c r="L509">
         <v>31</v>
       </c>
@@ -26562,6 +27510,9 @@
       <c r="J510">
         <v>143</v>
       </c>
+      <c r="K510">
+        <v>0</v>
+      </c>
       <c r="L510">
         <v>31</v>
       </c>
@@ -26612,6 +27563,9 @@
       <c r="J511">
         <v>20</v>
       </c>
+      <c r="K511">
+        <v>0</v>
+      </c>
       <c r="L511">
         <v>239</v>
       </c>
@@ -26662,6 +27616,9 @@
       <c r="J512">
         <v>20</v>
       </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
       <c r="L512">
         <v>239</v>
       </c>
@@ -26712,6 +27669,9 @@
       <c r="J513">
         <v>20</v>
       </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
       <c r="L513">
         <v>173</v>
       </c>
@@ -26762,6 +27722,9 @@
       <c r="J514">
         <v>241</v>
       </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
       <c r="L514">
         <v>196</v>
       </c>
@@ -26812,6 +27775,9 @@
       <c r="J515">
         <v>241</v>
       </c>
+      <c r="K515">
+        <v>0</v>
+      </c>
       <c r="L515">
         <v>196</v>
       </c>
@@ -26862,6 +27828,9 @@
       <c r="J516">
         <v>241</v>
       </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
       <c r="L516">
         <v>196</v>
       </c>
@@ -27283,6 +28252,9 @@
       <c r="J524">
         <v>72</v>
       </c>
+      <c r="K524">
+        <v>0</v>
+      </c>
       <c r="L524">
         <v>143</v>
       </c>
@@ -27333,6 +28305,9 @@
       <c r="J525">
         <v>72</v>
       </c>
+      <c r="K525">
+        <v>0</v>
+      </c>
       <c r="L525">
         <v>143</v>
       </c>
@@ -27383,6 +28358,9 @@
       <c r="J526">
         <v>72</v>
       </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
       <c r="L526">
         <v>20</v>
       </c>
@@ -27433,6 +28411,9 @@
       <c r="J527">
         <v>72</v>
       </c>
+      <c r="K527">
+        <v>0</v>
+      </c>
       <c r="L527">
         <v>20</v>
       </c>
@@ -27483,6 +28464,9 @@
       <c r="J528">
         <v>72</v>
       </c>
+      <c r="K528">
+        <v>0</v>
+      </c>
       <c r="L528">
         <v>241</v>
       </c>
@@ -27533,6 +28517,9 @@
       <c r="J529">
         <v>72</v>
       </c>
+      <c r="K529">
+        <v>0</v>
+      </c>
       <c r="L529">
         <v>241</v>
       </c>
@@ -27954,6 +28941,9 @@
       <c r="J537">
         <v>225</v>
       </c>
+      <c r="K537">
+        <v>0</v>
+      </c>
       <c r="L537">
         <v>182</v>
       </c>
@@ -28004,6 +28994,9 @@
       <c r="J538">
         <v>225</v>
       </c>
+      <c r="K538">
+        <v>0</v>
+      </c>
       <c r="L538">
         <v>182</v>
       </c>
@@ -28054,6 +29047,9 @@
       <c r="J539">
         <v>225</v>
       </c>
+      <c r="K539">
+        <v>0</v>
+      </c>
       <c r="L539">
         <v>182</v>
       </c>
@@ -29535,6 +30531,9 @@
       <c r="J567">
         <v>87</v>
       </c>
+      <c r="K567">
+        <v>0</v>
+      </c>
       <c r="L567">
         <v>99</v>
       </c>
@@ -29585,6 +30584,9 @@
       <c r="J568">
         <v>195</v>
       </c>
+      <c r="K568">
+        <v>0</v>
+      </c>
       <c r="L568">
         <v>266</v>
       </c>
@@ -29632,6 +30634,12 @@
       <c r="I569">
         <v>11</v>
       </c>
+      <c r="J569">
+        <v>195</v>
+      </c>
+      <c r="K569">
+        <v>0</v>
+      </c>
       <c r="L569">
         <v>266</v>
       </c>
@@ -30000,6 +31008,12 @@
       <c r="J576">
         <v>135</v>
       </c>
+      <c r="K576">
+        <v>0</v>
+      </c>
+      <c r="L576">
+        <v>0</v>
+      </c>
       <c r="M576">
         <v>1.5</v>
       </c>
@@ -30047,6 +31061,12 @@
       <c r="J577">
         <v>135</v>
       </c>
+      <c r="K577">
+        <v>0</v>
+      </c>
+      <c r="L577">
+        <v>0</v>
+      </c>
       <c r="M577">
         <v>76.5</v>
       </c>
@@ -30200,6 +31220,12 @@
       <c r="J580">
         <v>42</v>
       </c>
+      <c r="K580">
+        <v>0</v>
+      </c>
+      <c r="L580">
+        <v>0</v>
+      </c>
       <c r="M580">
         <v>9.5</v>
       </c>
@@ -30247,6 +31273,12 @@
       <c r="J581">
         <v>42</v>
       </c>
+      <c r="K581">
+        <v>0</v>
+      </c>
+      <c r="L581">
+        <v>0</v>
+      </c>
       <c r="M581">
         <v>32</v>
       </c>
@@ -30400,6 +31432,12 @@
       <c r="J584">
         <v>94</v>
       </c>
+      <c r="K584">
+        <v>0</v>
+      </c>
+      <c r="L584">
+        <v>0</v>
+      </c>
       <c r="M584">
         <v>12.5</v>
       </c>
@@ -30447,6 +31485,12 @@
       <c r="J585">
         <v>94</v>
       </c>
+      <c r="K585">
+        <v>0</v>
+      </c>
+      <c r="L585">
+        <v>0</v>
+      </c>
       <c r="M585">
         <v>81.099999999999994</v>
       </c>
@@ -30600,6 +31644,9 @@
       <c r="J588">
         <v>67</v>
       </c>
+      <c r="K588">
+        <v>0</v>
+      </c>
       <c r="L588">
         <v>193</v>
       </c>
@@ -30650,6 +31697,9 @@
       <c r="J589">
         <v>67</v>
       </c>
+      <c r="K589">
+        <v>0</v>
+      </c>
       <c r="L589">
         <v>193</v>
       </c>
@@ -30700,6 +31750,9 @@
       <c r="J590">
         <v>67</v>
       </c>
+      <c r="K590">
+        <v>0</v>
+      </c>
       <c r="L590">
         <v>193</v>
       </c>
@@ -31015,6 +32068,9 @@
       <c r="J596">
         <v>90</v>
       </c>
+      <c r="K596">
+        <v>0</v>
+      </c>
       <c r="L596">
         <v>261</v>
       </c>
@@ -31065,6 +32121,9 @@
       <c r="J597">
         <v>90</v>
       </c>
+      <c r="K597">
+        <v>0</v>
+      </c>
       <c r="L597">
         <v>261</v>
       </c>
@@ -31115,6 +32174,9 @@
       <c r="J598">
         <v>90</v>
       </c>
+      <c r="K598">
+        <v>0</v>
+      </c>
       <c r="L598">
         <v>261</v>
       </c>
@@ -31271,6 +32333,9 @@
       <c r="J601">
         <v>216</v>
       </c>
+      <c r="K601">
+        <v>0</v>
+      </c>
       <c r="L601">
         <v>131</v>
       </c>
@@ -31427,6 +32492,9 @@
       <c r="J604">
         <v>53</v>
       </c>
+      <c r="K604">
+        <v>0</v>
+      </c>
       <c r="L604">
         <v>175</v>
       </c>
@@ -31477,6 +32545,9 @@
       <c r="J605">
         <v>53</v>
       </c>
+      <c r="K605">
+        <v>0</v>
+      </c>
       <c r="L605">
         <v>175</v>
       </c>
@@ -31530,6 +32601,9 @@
       <c r="K606">
         <v>35</v>
       </c>
+      <c r="L606">
+        <v>0</v>
+      </c>
       <c r="M606">
         <v>33</v>
       </c>
@@ -31789,6 +32863,12 @@
       <c r="J611">
         <v>103</v>
       </c>
+      <c r="K611">
+        <v>0</v>
+      </c>
+      <c r="L611">
+        <v>0</v>
+      </c>
       <c r="M611">
         <v>18.8</v>
       </c>
@@ -31836,6 +32916,12 @@
       <c r="J612">
         <v>103</v>
       </c>
+      <c r="K612">
+        <v>0</v>
+      </c>
+      <c r="L612">
+        <v>0</v>
+      </c>
       <c r="M612">
         <v>110</v>
       </c>
@@ -32042,6 +33128,12 @@
       <c r="J616">
         <v>109</v>
       </c>
+      <c r="K616">
+        <v>0</v>
+      </c>
+      <c r="L616">
+        <v>0</v>
+      </c>
       <c r="M616">
         <v>0.3</v>
       </c>
@@ -32089,6 +33181,12 @@
       <c r="J617">
         <v>109</v>
       </c>
+      <c r="K617">
+        <v>0</v>
+      </c>
+      <c r="L617">
+        <v>0</v>
+      </c>
       <c r="M617">
         <v>22</v>
       </c>
@@ -32136,6 +33234,12 @@
       <c r="J618">
         <v>109</v>
       </c>
+      <c r="K618">
+        <v>0</v>
+      </c>
+      <c r="L618">
+        <v>0</v>
+      </c>
       <c r="M618">
         <v>80.5</v>
       </c>
@@ -32607,6 +33711,9 @@
       <c r="J627">
         <v>204</v>
       </c>
+      <c r="K627">
+        <v>0</v>
+      </c>
       <c r="L627">
         <v>171</v>
       </c>
@@ -32657,6 +33764,9 @@
       <c r="J628">
         <v>204</v>
       </c>
+      <c r="K628">
+        <v>0</v>
+      </c>
       <c r="L628">
         <v>231</v>
       </c>
@@ -32707,6 +33817,12 @@
       <c r="J629">
         <v>109</v>
       </c>
+      <c r="K629">
+        <v>0</v>
+      </c>
+      <c r="L629">
+        <v>0</v>
+      </c>
       <c r="M629">
         <v>148</v>
       </c>
@@ -33655,6 +34771,12 @@
       <c r="J647">
         <v>87</v>
       </c>
+      <c r="K647">
+        <v>0</v>
+      </c>
+      <c r="L647">
+        <v>0</v>
+      </c>
       <c r="M647">
         <v>17.3</v>
       </c>
@@ -33702,6 +34824,12 @@
       <c r="J648">
         <v>87</v>
       </c>
+      <c r="K648">
+        <v>0</v>
+      </c>
+      <c r="L648">
+        <v>0</v>
+      </c>
       <c r="M648">
         <v>50</v>
       </c>
@@ -33749,6 +34877,12 @@
       <c r="J649">
         <v>109</v>
       </c>
+      <c r="K649">
+        <v>0</v>
+      </c>
+      <c r="L649">
+        <v>0</v>
+      </c>
       <c r="M649">
         <v>160</v>
       </c>
@@ -33796,6 +34930,9 @@
       <c r="J650">
         <v>58</v>
       </c>
+      <c r="K650">
+        <v>0</v>
+      </c>
       <c r="L650">
         <v>229</v>
       </c>
@@ -33846,6 +34983,9 @@
       <c r="J651">
         <v>58</v>
       </c>
+      <c r="K651">
+        <v>0</v>
+      </c>
       <c r="L651">
         <v>229</v>
       </c>
@@ -33896,6 +35036,12 @@
       <c r="J652">
         <v>105</v>
       </c>
+      <c r="K652">
+        <v>0</v>
+      </c>
+      <c r="L652">
+        <v>0</v>
+      </c>
       <c r="M652">
         <v>250</v>
       </c>
@@ -33943,6 +35089,12 @@
       <c r="J653">
         <v>105</v>
       </c>
+      <c r="K653">
+        <v>0</v>
+      </c>
+      <c r="L653">
+        <v>0</v>
+      </c>
       <c r="M653">
         <v>260</v>
       </c>
@@ -33990,6 +35142,12 @@
       <c r="J654">
         <v>105</v>
       </c>
+      <c r="K654">
+        <v>0</v>
+      </c>
+      <c r="L654">
+        <v>0</v>
+      </c>
       <c r="M654">
         <v>200</v>
       </c>
@@ -34037,6 +35195,9 @@
       <c r="J655">
         <v>158</v>
       </c>
+      <c r="K655">
+        <v>0</v>
+      </c>
       <c r="L655">
         <v>43</v>
       </c>
@@ -34087,6 +35248,9 @@
       <c r="J656">
         <v>158</v>
       </c>
+      <c r="K656">
+        <v>0</v>
+      </c>
       <c r="L656">
         <v>43</v>
       </c>
@@ -34137,6 +35301,12 @@
       <c r="J657">
         <v>248</v>
       </c>
+      <c r="K657">
+        <v>0</v>
+      </c>
+      <c r="L657">
+        <v>0</v>
+      </c>
       <c r="M657">
         <v>330</v>
       </c>
@@ -34184,6 +35354,12 @@
       <c r="J658">
         <v>238</v>
       </c>
+      <c r="K658">
+        <v>0</v>
+      </c>
+      <c r="L658">
+        <v>0</v>
+      </c>
       <c r="M658">
         <v>345</v>
       </c>
@@ -34231,6 +35407,9 @@
       <c r="J659">
         <v>182</v>
       </c>
+      <c r="K659">
+        <v>0</v>
+      </c>
       <c r="L659">
         <v>195</v>
       </c>
@@ -34281,6 +35460,12 @@
       <c r="J660">
         <v>159</v>
       </c>
+      <c r="K660">
+        <v>0</v>
+      </c>
+      <c r="L660">
+        <v>0</v>
+      </c>
       <c r="M660">
         <v>325</v>
       </c>
@@ -34328,6 +35513,12 @@
       <c r="J661">
         <v>105</v>
       </c>
+      <c r="K661">
+        <v>0</v>
+      </c>
+      <c r="L661">
+        <v>0</v>
+      </c>
       <c r="M661">
         <v>48.5</v>
       </c>
@@ -34375,6 +35566,12 @@
       <c r="J662">
         <v>191</v>
       </c>
+      <c r="K662">
+        <v>0</v>
+      </c>
+      <c r="L662">
+        <v>0</v>
+      </c>
       <c r="M662">
         <v>6.5</v>
       </c>
@@ -34422,6 +35619,12 @@
       <c r="J663">
         <v>191</v>
       </c>
+      <c r="K663">
+        <v>0</v>
+      </c>
+      <c r="L663">
+        <v>0</v>
+      </c>
       <c r="M663">
         <v>6.5</v>
       </c>
@@ -34469,6 +35672,12 @@
       <c r="J664">
         <v>47</v>
       </c>
+      <c r="K664">
+        <v>0</v>
+      </c>
+      <c r="L664">
+        <v>0</v>
+      </c>
       <c r="M664">
         <v>82.5</v>
       </c>
@@ -34486,7 +35695,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:I664"/>
+  <autoFilter ref="J1:K664"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Pdx.xlsx
+++ b/Data/Pdx.xlsx
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
-      <selection activeCell="A666" sqref="A665:A666"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="G659" sqref="G659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
